--- a/day05/data/3_locations_final.xlsx
+++ b/day05/data/3_locations_final.xlsx
@@ -5903,17 +5903,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>서울 강동구 고덕동 281-11</t>
+          <t>전북특별자치도 군산시 월명동 17-37</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>37.5625896472885</t>
+          <t>35.9846249887953</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>127.162423743582</t>
+          <t>126.708312058605</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -6720,12 +6720,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>33.2619169247023</t>
+          <t>33.26195313602114</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>126.60492147759021</t>
+          <t>126.6049674633191</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11750,22 +11750,22 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>올레길 14코스(저지-한림 올레)</t>
+          <t>올레길 15-B코스(한림-고내 올레)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>제주특별자치도 제주시 한림읍 월령리</t>
+          <t>제주특별자치도 제주시 한림읍 귀덕리</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>33.36565953780862</t>
+          <t>33.44696680356802</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>126.22960827746336</t>
+          <t>126.2967483721911</t>
         </is>
       </c>
       <c r="F405" t="n">
@@ -14466,22 +14466,22 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>제주세호해장국 해남점</t>
+          <t>제주세호해장국해남점</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>전남 해남군 해남읍 해리 349</t>
+          <t>전남 해남군 해남읍 해리 350-1</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>34.5685947113919</t>
+          <t>34.56873431299486</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>126.606468489878</t>
+          <t>126.60643078114944</t>
         </is>
       </c>
       <c r="F502" t="n">
